--- a/public/part.xlsx
+++ b/public/part.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\draw\app\Http\Controllers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\draw\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,27 +24,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t>BTS02</t>
-  </si>
-  <si>
-    <t>Namanya</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>mutiarahardiani17@gmail.com</t>
   </si>
   <si>
-    <t>BTS03</t>
-  </si>
-  <si>
-    <t>BTS04</t>
-  </si>
-  <si>
-    <t>Juleha Kiehl</t>
-  </si>
-  <si>
-    <t>Rosetta Roguer</t>
+    <t>BTS05</t>
+  </si>
+  <si>
+    <t>BTS06</t>
+  </si>
+  <si>
+    <t>BTS07</t>
+  </si>
+  <si>
+    <t>BTS08</t>
+  </si>
+  <si>
+    <t>BTS09</t>
+  </si>
+  <si>
+    <t>BTS10</t>
+  </si>
+  <si>
+    <t>BTS11</t>
+  </si>
+  <si>
+    <t>BTS12</t>
+  </si>
+  <si>
+    <t>BTS13</t>
+  </si>
+  <si>
+    <t>BTS14</t>
+  </si>
+  <si>
+    <t>BTS15</t>
+  </si>
+  <si>
+    <t>BTS16</t>
+  </si>
+  <si>
+    <t>BTS17</t>
+  </si>
+  <si>
+    <t>BTS18</t>
+  </si>
+  <si>
+    <t>BTS19</t>
+  </si>
+  <si>
+    <t>BTS20</t>
+  </si>
+  <si>
+    <t>BTS21</t>
+  </si>
+  <si>
+    <t>BTS22</t>
+  </si>
+  <si>
+    <t>BTS23</t>
+  </si>
+  <si>
+    <t>BTS24</t>
+  </si>
+  <si>
+    <t>BTS25</t>
+  </si>
+  <si>
+    <t>BTS26</t>
+  </si>
+  <si>
+    <t>BTS27</t>
+  </si>
+  <si>
+    <t>Jimin</t>
+  </si>
+  <si>
+    <t>Jungkuk</t>
+  </si>
+  <si>
+    <t>Namjun</t>
+  </si>
+  <si>
+    <t>Bharlian</t>
+  </si>
+  <si>
+    <t>Kiky</t>
+  </si>
+  <si>
+    <t>Mia Rosa</t>
+  </si>
+  <si>
+    <t>Yeonjun</t>
+  </si>
+  <si>
+    <t>Soobin</t>
+  </si>
+  <si>
+    <t>Choi Siwon</t>
+  </si>
+  <si>
+    <t>Park Rae Ah</t>
+  </si>
+  <si>
+    <t>Jinyoung</t>
+  </si>
+  <si>
+    <t>Jarim</t>
+  </si>
+  <si>
+    <t>Park Taejoon</t>
+  </si>
+  <si>
+    <t>Dindin</t>
+  </si>
+  <si>
+    <t>Seyon</t>
+  </si>
+  <si>
+    <t>Jong In</t>
+  </si>
+  <si>
+    <t>Sazuke</t>
+  </si>
+  <si>
+    <t>Shizuka</t>
+  </si>
+  <si>
+    <t>Nobita</t>
+  </si>
+  <si>
+    <t>Giant</t>
+  </si>
+  <si>
+    <t>Nick Kunatip</t>
+  </si>
+  <si>
+    <t>Syuga</t>
+  </si>
+  <si>
+    <t>BTS28</t>
+  </si>
+  <si>
+    <t>Beomgyu</t>
+  </si>
+  <si>
+    <t>EJ</t>
   </si>
 </sst>
 </file>
@@ -100,8 +226,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -376,26 +530,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2">
         <v>62896756453</v>
@@ -403,13 +558,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>62896756453</v>
@@ -417,25 +572,320 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>62896756453</v>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>62896756453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>62896756454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>62896756455</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C2:C23" r:id="rId2" display="mutiarahardiani17@gmail.com"/>
+    <hyperlink ref="C23" r:id="rId3"/>
+    <hyperlink ref="C24" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
 </worksheet>
 </file>